--- a/Food.xlsx
+++ b/Food.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jedis\Desktop\FIN377\Class Notes\FrontToBack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D2723-77D0-4936-A589-0F239E2F49F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holdings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
-  <si>
-    <t>First Trust Nasdaq Food &amp; Beverage ETF Holdings as of 4/25/2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>Security Name</t>
   </si>
@@ -321,30 +326,15 @@
   </si>
   <si>
     <t>G16962105</t>
-  </si>
-  <si>
-    <t>US Dollar</t>
-  </si>
-  <si>
-    <t>$USD</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Holdings are subject to change. The holdings information set forth above for the date indicated reflects creation and redemption transactions from the prior business day and may differ from the holdings information currently available from the Fund's custodian and accounting agent. With respect to the market value of the Fund's holdings set forth above, the pricing sources are generally third party vendors. The Fund ultimately relies on pricing information provided by the Fund's accounting agent.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="$#,##0.00;[Red]($#,##0.00)"/>
-    <numFmt numFmtId="165" formatCode="0.00%;[Red](0.00%)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00;[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.00%;[Red]\(0.00%\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,6 +345,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,79 +366,393 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="38" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.0590839385986" customWidth="1"/>
-    <col min="2" max="2" width="9.73431205749512" customWidth="1"/>
-    <col min="3" max="3" width="11.5236520767212" customWidth="1"/>
-    <col min="4" max="4" width="38.8916664123535" customWidth="1"/>
-    <col min="5" max="5" width="18.1838073730469" customWidth="1"/>
-    <col min="6" max="6" width="15.0644817352295" customWidth="1"/>
-    <col min="7" max="7" width="10.6254014968872" customWidth="1"/>
+    <col min="1" max="1" width="31.05078125" customWidth="1"/>
+    <col min="2" max="2" width="9.734375" customWidth="1"/>
+    <col min="3" max="3" width="11.5234375" customWidth="1"/>
+    <col min="4" max="4" width="38.89453125" customWidth="1"/>
+    <col min="5" max="5" width="18.15625" customWidth="1"/>
+    <col min="6" max="6" width="15.05078125" customWidth="1"/>
+    <col min="7" max="7" width="10.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>945529</v>
@@ -456,21 +761,21 @@
         <v>83679316.5</v>
       </c>
       <c r="G4" s="4">
-        <v>0.084100000000000008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+        <v>8.4100000000000008E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>11</v>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>1153448</v>
@@ -479,228 +784,228 @@
         <v>83624980</v>
       </c>
       <c r="G5" s="4">
-        <v>0.084</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="2">
         <v>433246</v>
       </c>
       <c r="F6" s="3">
-        <v>82191098.66</v>
+        <v>82191098.659999996</v>
       </c>
       <c r="G6" s="4">
-        <v>0.082599999999999993</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+        <v>8.2599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>18</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>1263339</v>
       </c>
       <c r="F7" s="3">
-        <v>80664195.15</v>
+        <v>80664195.150000006</v>
       </c>
       <c r="G7" s="4">
-        <v>0.081</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>944498</v>
       </c>
       <c r="F8" s="3">
-        <v>71687398.2</v>
+        <v>71687398.200000003</v>
       </c>
       <c r="G8" s="4">
-        <v>0.072000000000000008</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+        <v>7.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>157705</v>
       </c>
       <c r="F9" s="3">
-        <v>41473260.9</v>
+        <v>41473260.899999999</v>
       </c>
       <c r="G9" s="4">
-        <v>0.0417</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>11</v>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>1032420</v>
       </c>
       <c r="F10" s="3">
-        <v>39376498.8</v>
+        <v>39376498.799999997</v>
       </c>
       <c r="G10" s="4">
-        <v>0.039599999999999996</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+        <v>3.9599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>11</v>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>254184</v>
       </c>
       <c r="F11" s="3">
-        <v>39230758.56</v>
+        <v>39230758.560000002</v>
       </c>
       <c r="G11" s="4">
-        <v>0.0394</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>11</v>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>715736</v>
       </c>
       <c r="F12" s="3">
-        <v>39129287.12</v>
+        <v>39129287.119999997</v>
       </c>
       <c r="G12" s="4">
-        <v>0.0393</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>11</v>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="2">
         <v>570069</v>
       </c>
       <c r="F13" s="3">
-        <v>39078229.95</v>
+        <v>39078229.950000003</v>
       </c>
       <c r="G13" s="4">
-        <v>0.0393</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+        <v>3.9300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>18</v>
+      <c r="D14" t="s">
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>1088007</v>
       </c>
       <c r="F14" s="3">
-        <v>39048571.23</v>
+        <v>39048571.229999997</v>
       </c>
       <c r="G14" s="4">
-        <v>0.0392</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>11</v>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>634514</v>
@@ -709,182 +1014,182 @@
         <v>38705354</v>
       </c>
       <c r="G15" s="4">
-        <v>0.038900000000000004</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+        <v>3.8900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>11</v>
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="2">
         <v>965331</v>
       </c>
       <c r="F16" s="3">
-        <v>38072654.64</v>
+        <v>38072654.640000001</v>
       </c>
       <c r="G16" s="4">
-        <v>0.0382</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+        <v>3.8199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="2">
         <v>579467</v>
       </c>
       <c r="F17" s="3">
-        <v>37056914.65</v>
+        <v>37056914.649999999</v>
       </c>
       <c r="G17" s="4">
-        <v>0.037200000000000004</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+        <v>3.7200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E18" s="2">
         <v>603465</v>
       </c>
       <c r="F18" s="3">
-        <v>36527736.45</v>
+        <v>36527736.450000003</v>
       </c>
       <c r="G18" s="4">
-        <v>0.036699999999999997</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+        <v>3.6699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>11</v>
+      <c r="D19" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>847033</v>
       </c>
       <c r="F19" s="3">
-        <v>33898260.66</v>
+        <v>33898260.659999996</v>
       </c>
       <c r="G19" s="4">
-        <v>0.0341</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>11</v>
+      <c r="D20" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="2">
         <v>893812</v>
       </c>
       <c r="F20" s="3">
-        <v>33124672.72</v>
+        <v>33124672.719999999</v>
       </c>
       <c r="G20" s="4">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>18</v>
+      <c r="D21" t="s">
+        <v>17</v>
       </c>
       <c r="E21" s="2">
         <v>45959</v>
       </c>
       <c r="F21" s="3">
-        <v>25757721.55</v>
+        <v>25757721.550000001</v>
       </c>
       <c r="G21" s="4">
-        <v>0.0259</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>11</v>
+      <c r="D22" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="2">
         <v>217614</v>
       </c>
       <c r="F22" s="3">
-        <v>23891841.06</v>
+        <v>23891841.059999999</v>
       </c>
       <c r="G22" s="4">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>11</v>
+      <c r="D23" t="s">
+        <v>10</v>
       </c>
       <c r="E23" s="2">
         <v>563989</v>
@@ -893,21 +1198,21 @@
         <v>15351780.58</v>
       </c>
       <c r="G23" s="4">
-        <v>0.0154</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+        <v>1.54E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>11</v>
+      <c r="D24" t="s">
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>159229</v>
@@ -916,136 +1221,136 @@
         <v>14180934.74</v>
       </c>
       <c r="G24" s="4">
-        <v>0.014199999999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+        <v>1.4199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>11</v>
+      <c r="D25" t="s">
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>448494</v>
       </c>
       <c r="F25" s="3">
-        <v>11171985.54</v>
+        <v>11171985.539999999</v>
       </c>
       <c r="G25" s="4">
-        <v>0.011200000000000002</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+        <v>1.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>11</v>
+      <c r="D26" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>46257</v>
       </c>
       <c r="F26" s="3">
-        <v>9490086.12</v>
+        <v>9490086.1199999992</v>
       </c>
       <c r="G26" s="4">
-        <v>0.0095</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>25</v>
+      <c r="D27" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="2">
         <v>58012</v>
       </c>
       <c r="F27" s="3">
-        <v>6021645.6</v>
+        <v>6021645.5999999996</v>
       </c>
       <c r="G27" s="4">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>18</v>
+      <c r="D28" t="s">
+        <v>17</v>
       </c>
       <c r="E28" s="2">
         <v>119947</v>
       </c>
       <c r="F28" s="3">
-        <v>5985355.3</v>
+        <v>5985355.2999999998</v>
       </c>
       <c r="G28" s="4">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>11</v>
+      <c r="D29" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>154803</v>
       </c>
       <c r="F29" s="3">
-        <v>5461449.84</v>
+        <v>5461449.8399999999</v>
       </c>
       <c r="G29" s="4">
-        <v>0.0055000000000000005</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+        <v>5.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>18</v>
+      <c r="D30" t="s">
+        <v>17</v>
       </c>
       <c r="E30" s="2">
         <v>93922</v>
@@ -1054,44 +1359,44 @@
         <v>5091511.62</v>
       </c>
       <c r="G30" s="4">
-        <v>0.0051</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>11</v>
+      <c r="D31" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <v>97966</v>
       </c>
       <c r="F31" s="3">
-        <v>5121662.48</v>
+        <v>5121662.4800000004</v>
       </c>
       <c r="G31" s="4">
-        <v>0.0051</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>11</v>
+      <c r="D32" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="2">
         <v>137924</v>
@@ -1100,21 +1405,21 @@
         <v>4958367.8</v>
       </c>
       <c r="G32" s="4">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>25</v>
+      <c r="D33" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="2">
         <v>50048</v>
@@ -1123,42 +1428,31 @@
         <v>4573386.24</v>
       </c>
       <c r="G33" s="4">
-        <v>0.0046</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1874614</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1874614.35</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.0019</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>107</v>
-      </c>
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A35:J35"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>